--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="0" windowWidth="28800" windowHeight="14250" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="17160" yWindow="0" windowWidth="28800" windowHeight="14250" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="15" r:id="rId1"/>
@@ -1379,6 +1379,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFCC99"/>
+      <color rgb="FFCC0000"/>
       <color rgb="FFDE7AE6"/>
       <color rgb="FF509FE6"/>
       <color rgb="FF75F1EE"/>
@@ -4046,15 +4047,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>383376</xdr:colOff>
+      <xdr:colOff>418013</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23270</xdr:rowOff>
+      <xdr:rowOff>161815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>285528</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>41600</xdr:rowOff>
+      <xdr:colOff>320165</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4063,8 +4064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21100251" y="189958"/>
-          <a:ext cx="1973840" cy="685080"/>
+          <a:off x="26741649" y="334997"/>
+          <a:ext cx="1980334" cy="711057"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4113,15 +4114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:colOff>129888</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>77933</xdr:colOff>
+      <xdr:colOff>142256</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:rowOff>75458</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4132,9 +4133,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="27778363" y="2216727"/>
-          <a:ext cx="8661" cy="779318"/>
+        <a:xfrm>
+          <a:off x="27838979" y="2511137"/>
+          <a:ext cx="12368" cy="508412"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4160,101 +4161,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>607846</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>3147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>127472</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>48368</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="正方形/長方形 195"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21181846" y="10480647"/>
-          <a:ext cx="1577026" cy="807221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>壁壊れる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>19170</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>143987</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>24759</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>3147</xdr:rowOff>
+      <xdr:colOff>154379</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129639</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="198" name="直線コネクタ 197"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="185" idx="3"/>
-          <a:endCxn id="196" idx="0"/>
+          <a:stCxn id="167" idx="2"/>
+          <a:endCxn id="184" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27451170" y="9182100"/>
-          <a:ext cx="5589" cy="1298547"/>
+        <a:xfrm flipH="1">
+          <a:off x="27853078" y="7100455"/>
+          <a:ext cx="10392" cy="649184"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4280,106 +4209,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>128828</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="二等辺三角形 184"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25503428" y="7458075"/>
-          <a:ext cx="3895483" cy="1724025"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>豚が慌てて突撃して来る</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>15706</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:colOff>151163</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>77932</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>154379</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="209" name="直線コネクタ 208"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="2"/>
-          <a:endCxn id="185" idx="0"/>
+          <a:stCxn id="158" idx="2"/>
+          <a:endCxn id="167" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="27724797" y="5680364"/>
-          <a:ext cx="62226" cy="1102302"/>
+        <a:xfrm>
+          <a:off x="27860254" y="5351318"/>
+          <a:ext cx="3216" cy="479467"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4405,29 +4257,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>442561</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>79631</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>141143</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>448215</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>94752</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>150668</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>174480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="直線コネクタ 216"/>
+        <xdr:cNvPr id="281" name="直線コネクタ 280"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="381" idx="2"/>
-          <a:endCxn id="121" idx="0"/>
+          <a:stCxn id="142" idx="2"/>
+          <a:endCxn id="220" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="24445561" y="27702131"/>
-          <a:ext cx="5654" cy="396121"/>
+          <a:off x="27573143" y="19145250"/>
+          <a:ext cx="9525" cy="1603230"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4453,268 +4305,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>444251</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>13906</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>147208</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>444086</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>184685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="台形 237"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23113751" y="31065406"/>
-          <a:ext cx="1333335" cy="932779"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>傘</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>460661</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>184437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>45953</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="二等辺三角形 238"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12119261" y="32378937"/>
-          <a:ext cx="3654139" cy="1957016"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>特定の場所で</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>自動的に差す</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>96466</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>39572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>356879</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>112691</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="正方形/長方形 239"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13217154" y="30543385"/>
-          <a:ext cx="1641538" cy="739869"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>崖を渡る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>230331</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>169126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>353387</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>174912</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>150420</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="243" name="直線コネクタ 242"/>
+        <xdr:cNvPr id="333" name="直線コネクタ 332"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="329" idx="1"/>
-          <a:endCxn id="239" idx="0"/>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="202" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="13946331" y="31220626"/>
-          <a:ext cx="2180456" cy="1148786"/>
+        <a:xfrm>
+          <a:off x="27769708" y="13311187"/>
+          <a:ext cx="3212" cy="551584"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="76200"/>
@@ -4743,1305 +4358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>226673</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>45953</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>683573</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>27894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>230331</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>39572</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="247" name="直線コネクタ 246"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="240" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14037923" y="30049703"/>
-          <a:ext cx="3658" cy="493682"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>551872</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>320942</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>137183</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="二等辺三角形 260"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17560801" y="16350463"/>
-          <a:ext cx="2490498" cy="1299113"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>羊が柵を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>飛び始める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>543212</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>143977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>191430</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>137495</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="台形 261"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20953926" y="13057156"/>
-          <a:ext cx="1689290" cy="877982"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ラジカセ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>530361</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>79440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>326086</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>79409</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="正方形/長方形 262"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17539290" y="15115333"/>
-          <a:ext cx="2517153" cy="884433"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>羊に近づくとラジカセが自動的に起動する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>624175</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>146391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>558697</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>139906</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="円/楕円 263"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29627800" y="15148266"/>
-          <a:ext cx="2006210" cy="826953"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>柵越えれない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>139145</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>134823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>47935</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>104527</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="円/楕円 264"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17828431" y="18001002"/>
-          <a:ext cx="1949861" cy="854168"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>柵を越えれる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>215355</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>112691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>226673</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>107857</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="266" name="直線コネクタ 265"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="240" idx="2"/>
-          <a:endCxn id="109" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14026605" y="31283254"/>
-          <a:ext cx="11318" cy="328541"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>428224</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>438852</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>79440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="270" name="直線コネクタ 269"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="332" idx="2"/>
-          <a:endCxn id="263" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18797867" y="14782118"/>
-          <a:ext cx="10628" cy="333215"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>428224</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>79409</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>436407</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="274" name="直線コネクタ 273"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="263" idx="2"/>
-          <a:endCxn id="261" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18797867" y="15999766"/>
-          <a:ext cx="8183" cy="350697"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>234652</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>140213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>246155</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>146391</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="277" name="直線コネクタ 276"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="360" idx="4"/>
-          <a:endCxn id="264" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30619402" y="14475338"/>
-          <a:ext cx="11503" cy="672928"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>433719</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>137183</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>436407</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>134823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="281" name="直線コネクタ 280"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="261" idx="3"/>
-          <a:endCxn id="265" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18803362" y="17649576"/>
-          <a:ext cx="2688" cy="351426"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>328679</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>94533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>405422</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>52006</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="291" name="直線コネクタ 290"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="238" idx="3"/>
-          <a:endCxn id="292" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24331679" y="31527033"/>
-          <a:ext cx="3410493" cy="1481473"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="FF0000"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>358406</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>52006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>45523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="292" name="円/楕円 291"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22304006" y="29198506"/>
-          <a:ext cx="1465632" cy="946017"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>拾わない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>220601</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>130004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>280308</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>48370</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="正方形/長方形 308"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15994001" y="29086004"/>
-          <a:ext cx="1431307" cy="870866"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>拾う</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>250456</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>94532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>559659</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>130003</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="314" name="直線コネクタ 313"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="238" idx="1"/>
-          <a:endCxn id="309" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="21586456" y="31527032"/>
-          <a:ext cx="1642703" cy="1368971"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="00B050"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>405422</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>45523</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>411851</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>52067</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="319" name="直線コネクタ 318"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="292" idx="4"/>
-          <a:endCxn id="320" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23036822" y="30144523"/>
-          <a:ext cx="6429" cy="768544"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>112856</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>52067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>25046</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>45583</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="円/楕円 319"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22058456" y="30913067"/>
-          <a:ext cx="1969590" cy="946016"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>崖を渡れない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>417163</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>101735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>460540</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="正方形/長方形 331"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18106449" y="14076271"/>
-          <a:ext cx="1404091" cy="705847"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>拾う</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>438853</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>52290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>652961</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>101735</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="333" name="直線コネクタ 332"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="262" idx="1"/>
-          <a:endCxn id="332" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="18808496" y="13496147"/>
-          <a:ext cx="2255179" cy="580124"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="00B050"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>88061</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>234652</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>146699</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="359" name="直線コネクタ 358"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="262" idx="3"/>
-          <a:endCxn id="360" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28401124" y="12725643"/>
-          <a:ext cx="2218278" cy="922744"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="FF0000"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>146628</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>146699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>322675</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>140213</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="360" name="円/楕円 359"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29840816" y="13648387"/>
-          <a:ext cx="1557172" cy="826951"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>拾わない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>112073</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>75519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>643988</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>524926</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>108239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6050,8 +4376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28782323" y="37413519"/>
-          <a:ext cx="7199415" cy="1985345"/>
+          <a:off x="27615511" y="32698644"/>
+          <a:ext cx="7437540" cy="1747220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6104,1754 +4430,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>27142</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>108396</xdr:rowOff>
+      <xdr:colOff>143740</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>29302</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>143977</xdr:rowOff>
+      <xdr:colOff>147208</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="93" name="直線コネクタ 92"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="4"/>
-          <a:endCxn id="262" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="21798571" y="12137110"/>
-          <a:ext cx="2160" cy="920046"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>572967</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>172489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>299358</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>166004</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="正方形/長方形 132"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17581896" y="19276918"/>
-          <a:ext cx="2447819" cy="701086"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゴール</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>窪みがある</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>433719</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>104527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>436163</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>172489</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="直線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="265" idx="4"/>
-          <a:endCxn id="133" idx="0"/>
+          <a:stCxn id="110" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18803362" y="18855170"/>
-          <a:ext cx="2444" cy="421748"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>228888</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>147748</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>241588</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>141263</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="円/楕円 161"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16161615" y="36169566"/>
-          <a:ext cx="2090882" cy="859424"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>何も起こらない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>134666</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>114477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>93970</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>115852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="二等辺三角形 164"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17143595" y="22756763"/>
-          <a:ext cx="3361089" cy="1593410"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>木の実が出来て落ちてくる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>117128</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>74709</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>561738</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>79384</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="166" name="直線コネクタ 165"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="1"/>
-          <a:endCxn id="269" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11166128" y="33412209"/>
-          <a:ext cx="1825735" cy="838113"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="00B050"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>239464</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>94435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>239299</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>53316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="台形 328"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16012864" y="30764935"/>
-          <a:ext cx="1371435" cy="911381"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>画面に切り替える</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>239382</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>48370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>250455</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>94435</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="335" name="直線コネクタ 334"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="309" idx="2"/>
-          <a:endCxn id="329" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="16698582" y="29956870"/>
-          <a:ext cx="11073" cy="808065"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>434292</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>64993</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>669781</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>84426</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="台形 68"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12903383" y="34181811"/>
-          <a:ext cx="2313671" cy="1058524"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面である </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OR 3D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面に切り替える</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>205674</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>67108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>214273</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>64993</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線コネクタ 71"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="109" idx="4"/>
-          <a:endCxn id="69" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14060219" y="33664381"/>
-          <a:ext cx="8599" cy="517430"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>125376</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>169126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>684894</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>127773</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線コネクタ 290"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="329" idx="3"/>
-          <a:endCxn id="98" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17270376" y="31220626"/>
-          <a:ext cx="2616918" cy="1101647"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="FF0000"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>295626</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>127773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>388361</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="円/楕円 97"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18812226" y="32322273"/>
-          <a:ext cx="2150135" cy="842045"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>崖を渡れない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>472705</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>107857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>648567</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>67108</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="円/楕円 108"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12941796" y="32839221"/>
-          <a:ext cx="2254044" cy="825160"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>大きな木がある</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>406772</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>79385</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>518043</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>36801</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="269" name="二等辺三角形 268"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9384085" y="34250323"/>
-          <a:ext cx="3564083" cy="1624291"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>アイテムを持ったリスが木の巣穴に逃げる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>430997</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>166004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>436163</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>126658</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="275" name="直線コネクタ 274"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="133" idx="2"/>
-          <a:endCxn id="225" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18800640" y="19978004"/>
-          <a:ext cx="5166" cy="314440"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>577995</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>102721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>686663</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>30925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="294" name="正方形/長方形 293"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13008120" y="41941284"/>
-          <a:ext cx="2180356" cy="761641"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>崖まで行くと奥に戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285317</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>287048</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>102721</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="295" name="直線コネクタ 294"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="418" idx="3"/>
-          <a:endCxn id="294" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14096567" y="41481375"/>
-          <a:ext cx="1731" cy="459909"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>537466</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>74709</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>581601</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>147748</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="363" name="直線コネクタ 165"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="3"/>
-          <a:endCxn id="162" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15084739" y="34711073"/>
-          <a:ext cx="2122317" cy="1458493"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="FF0000"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>158745</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>159594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>51885</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>79631</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="正方形/長方形 380"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17848031" y="24924594"/>
-          <a:ext cx="1934211" cy="804501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>木の実を拾う</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>445494</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>115852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>454497</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>159594</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="382" name="直線コネクタ 381"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="165" idx="3"/>
-          <a:endCxn id="381" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18815137" y="24350173"/>
-          <a:ext cx="9003" cy="574421"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>115988</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>36801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>117127</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="410" name="直線コネクタ 409"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="269" idx="3"/>
-          <a:endCxn id="414" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11164988" y="35874614"/>
-          <a:ext cx="1139" cy="993804"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>518162</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>404376</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>114421</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="414" name="正方形/長方形 413"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10186037" y="36868418"/>
-          <a:ext cx="1957902" cy="750691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>木の巣穴まで来る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>475382</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>143664</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="418" name="二等辺三角形 417"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12214945" y="39981977"/>
-          <a:ext cx="3763244" cy="1499398"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リスが出てきてアイテムをアイテム入手</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>111506</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>114421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>115988</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>3271</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="419" name="直線コネクタ 418"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="414" idx="2"/>
-          <a:endCxn id="373" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11160506" y="37619109"/>
-          <a:ext cx="4482" cy="722287"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>647181</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>56460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>630371</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>4054</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="円/楕円 80"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13077306" y="43395210"/>
-          <a:ext cx="2054878" cy="947719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゴール</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>窪み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>373124</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>365837</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>108396</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="円/楕円 89"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20947124" y="12002110"/>
-          <a:ext cx="2050113" cy="1060286"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>柵があり、手前に羊がいる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>24759</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>48368</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>26581</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>610</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線コネクタ 94"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="196" idx="2"/>
-          <a:endCxn id="90" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21970359" y="11287868"/>
-          <a:ext cx="1822" cy="714242"/>
+          <a:off x="27766240" y="10403896"/>
+          <a:ext cx="3468" cy="781485"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7878,28 +4478,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>143740</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>77932</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:colOff>143987</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>148935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線コネクタ 145"/>
+        <xdr:cNvPr id="95" name="直線コネクタ 94"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
+          <a:stCxn id="184" idx="2"/>
+          <a:endCxn id="110" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27778363" y="3827318"/>
-          <a:ext cx="8660" cy="987136"/>
+        <a:xfrm flipH="1">
+          <a:off x="27852831" y="8503227"/>
+          <a:ext cx="247" cy="997526"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7925,101 +4525,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>139144</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>126658</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142256</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>42492</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>109969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="円/楕円 224"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17828430" y="20292444"/>
-          <a:ext cx="1944419" cy="867775"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>森がある</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>451131</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>168725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>454497</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>114477</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>151163</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119248</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="267" name="直線コネクタ 266"/>
+        <xdr:cNvPr id="146" name="直線コネクタ 145"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="283" idx="2"/>
-          <a:endCxn id="165" idx="0"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="158" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18820774" y="22280332"/>
-          <a:ext cx="3366" cy="476431"/>
+          <a:off x="27851347" y="3850822"/>
+          <a:ext cx="8907" cy="597971"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8045,1111 +4573,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>262725</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>175210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>639537</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>168725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="283" name="正方形/長方形 282"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17952011" y="21579246"/>
-          <a:ext cx="1737526" cy="701086"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>森の場所にいく</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>430997</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>109969</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>451131</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>175210</xdr:rowOff>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="286" name="直線コネクタ 285"/>
+        <xdr:cNvPr id="267" name="直線コネクタ 266"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="225" idx="4"/>
-          <a:endCxn id="283" idx="0"/>
+          <a:stCxn id="284" idx="2"/>
+          <a:endCxn id="311" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18800640" y="21160219"/>
-          <a:ext cx="20134" cy="419027"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285318</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>12987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>466488</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>143664</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="372" name="直線コネクタ 165"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="373" idx="1"/>
-          <a:endCxn id="418" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="14096568" y="38851175"/>
-          <a:ext cx="1562295" cy="1130802"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="00B050"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>339042</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>3271</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>574531</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>22704</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="台形 372"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10006917" y="38341396"/>
-          <a:ext cx="2307177" cy="1019558"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面である </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OR 3D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面に切り替える</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>447086</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>12987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>677934</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>46004</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="374" name="直線コネクタ 165"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="373" idx="3"/>
-          <a:endCxn id="391" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17711149" y="38851175"/>
-          <a:ext cx="2302535" cy="1533204"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="FF0000"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>326302</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>46004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>339002</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>39519</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="391" name="円/楕円 390"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18971490" y="40384379"/>
-          <a:ext cx="2084387" cy="826953"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>何も起こらない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>287048</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>30925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>293495</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>56460</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="直線コネクタ 85"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="294" idx="2"/>
-          <a:endCxn id="81" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14098298" y="42702925"/>
-          <a:ext cx="6447" cy="692285"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485343</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>108235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>663087</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>105563</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線コネクタ 165"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="1"/>
-          <a:endCxn id="102" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="10843781" y="45613923"/>
-          <a:ext cx="2249431" cy="997453"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="00B050"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>535641</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>98520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>80568</xdr:colOff>
-      <xdr:row>296</xdr:row>
-      <xdr:rowOff>117953</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="台形 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12965766" y="45104145"/>
-          <a:ext cx="2307177" cy="1019558"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面である </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OR 2D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面に切り替える</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>643685</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>108236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>663646</xdr:colOff>
-      <xdr:row>302</xdr:row>
-      <xdr:rowOff>55529</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線コネクタ 165"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="3"/>
-          <a:endCxn id="100" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15145498" y="45613924"/>
-          <a:ext cx="2091648" cy="1447480"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:srgbClr val="FF0000"/>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>293495</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>4054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>308105</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>98520</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直線コネクタ 98"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="4"/>
-          <a:endCxn id="92" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14104745" y="44342929"/>
-          <a:ext cx="14610" cy="761216"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>312014</xdr:colOff>
-      <xdr:row>302</xdr:row>
-      <xdr:rowOff>55529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>324714</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>49044</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="円/楕円 99"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16194952" y="47061404"/>
-          <a:ext cx="2084387" cy="826953"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>何も起こらない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>675408</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>105564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>295277</xdr:colOff>
-      <xdr:row>308</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="二等辺三角形 101"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8962158" y="46611377"/>
-          <a:ext cx="3763244" cy="1489872"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>扉が開いてゴール入るイベント</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485343</xdr:colOff>
-      <xdr:row>308</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>496762</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>41232</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線コネクタ 110"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="102" idx="3"/>
-          <a:endCxn id="117" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10876252" y="49971613"/>
-          <a:ext cx="11419" cy="811892"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>467445</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>41232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>526078</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>132771</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="正方形/長方形 116"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10165627" y="50783505"/>
-          <a:ext cx="1444087" cy="784266"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゴール地点</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>325745</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>94752</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>559376</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="二等辺三角形 120"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22271345" y="28098252"/>
-          <a:ext cx="4348431" cy="1896839"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>犬が傘を口にクワえてクルクル回っている</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>442561</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>444169</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>13906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直線コネクタ 124"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="121" idx="3"/>
-          <a:endCxn id="238" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23778811" y="29995091"/>
-          <a:ext cx="1608" cy="1070315"/>
+          <a:off x="24131587" y="24593548"/>
+          <a:ext cx="23811" cy="585787"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9176,15 +4622,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>225138</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>103908</xdr:rowOff>
+      <xdr:colOff>277093</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>623456</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:colOff>675411</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9193,7 +4639,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26548774" y="1316181"/>
+          <a:off x="26600729" y="1610591"/>
           <a:ext cx="2476500" cy="900546"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -9382,16 +4828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>445510</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1732</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>683637</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>149368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>153266</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>36368</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9400,8 +4846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10803948" y="1001857"/>
-          <a:ext cx="2470006" cy="868074"/>
+          <a:off x="33602037" y="54822868"/>
+          <a:ext cx="1535688" cy="972850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -9437,7 +4883,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> ゴール地点</a:t>
+            <a:t> ゴール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9868,15 +5314,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
+      <xdr:colOff>49479</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:rowOff>75458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
+      <xdr:colOff>235033</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9885,8 +5331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26340953" y="2996045"/>
-          <a:ext cx="2874819" cy="831273"/>
+          <a:off x="26373115" y="3019549"/>
+          <a:ext cx="2956463" cy="831273"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -9936,28 +5382,176 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="28038136" y="9144000"/>
+          <a:ext cx="2926773" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>34639</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>606137</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:colOff>259776</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フローチャート: 定義済み処理 21"/>
+        <xdr:cNvPr id="77" name="フローチャート: 判断 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25873364" y="4814454"/>
-          <a:ext cx="3827318" cy="865910"/>
+          <a:off x="26276014" y="11185381"/>
+          <a:ext cx="2987387" cy="2125806"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ラジカセ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　拾う</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>96980</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>148935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="フローチャート: 処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26420616" y="9500753"/>
+          <a:ext cx="2864429" cy="1305791"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -9990,7 +5584,2532 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>柵があり羊が周りにいる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>259776</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>80096</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="29263401" y="8806296"/>
+          <a:ext cx="1623576" cy="3441988"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>104403</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>197923</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="フローチャート: 処理 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26428039" y="4448793"/>
+          <a:ext cx="2864429" cy="902525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>小屋が燃える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>291439</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="フローチャート: 処理 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25922348" y="5830785"/>
+          <a:ext cx="3882244" cy="1269670"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>豚が突撃する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>尻に火が点いている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>218702</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="フローチャート: 処理 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26542338" y="7749639"/>
+          <a:ext cx="2621480" cy="753588"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>壁が壊れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>287479</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>13359</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="フローチャート: 処理 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25918388" y="14401799"/>
+          <a:ext cx="3882244" cy="682337"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>羊が柵を飛び始める</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="フローチャート: 定義済み処理 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25258568" y="15168565"/>
+          <a:ext cx="5024438" cy="1595435"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>羊の上に載って柵を飛び越える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>148287</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>150420</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="直線コネクタ 206"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="2"/>
+          <a:endCxn id="142" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27770787" y="14519131"/>
+          <a:ext cx="2133" cy="649434"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>139413</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>184005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="フローチャート: 判断 219"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25514013" y="20758005"/>
+          <a:ext cx="4118260" cy="2435368"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゴールの扉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>閉じている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>63427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>139414</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="228" name="直線コネクタ 332"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="284" idx="0"/>
+          <a:endCxn id="220" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="24223484" y="21879031"/>
+          <a:ext cx="1198633" cy="1382426"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="00B050"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>63427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>43513</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>160192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="3"/>
+          <a:endCxn id="249" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29632273" y="21970927"/>
+          <a:ext cx="4701240" cy="2192265"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>353726</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>160192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="フローチャート: 判断 248"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32586326" y="24163192"/>
+          <a:ext cx="3494373" cy="1821007"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>視点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>= 2D</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>43513</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>79881</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>149368</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="直線コネクタ 332"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="118" idx="0"/>
+          <a:endCxn id="249" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="34333513" y="25984199"/>
+          <a:ext cx="36368" cy="28838669"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="00B050"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>118196</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="268" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="249" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="36080699" y="20231100"/>
+          <a:ext cx="2286001" cy="4842596"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="直線矢印コネクタ 270"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27660600" y="20231100"/>
+          <a:ext cx="10820400" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104773</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="フローチャート: 処理 283"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22736173" y="23169560"/>
+          <a:ext cx="2790827" cy="1423988"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>森があり、木の下に行く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128584</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="フローチャート: 処理 310"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22759984" y="25179335"/>
+          <a:ext cx="2790827" cy="1566864"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>木の実が落ちて、それを拾う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>422131</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>61915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>612632</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="フローチャート: 定義済み処理 322"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21829569" y="24564978"/>
+          <a:ext cx="5024438" cy="1595435"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>犬が傘を咥えてクルクル回っている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>172100</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>61915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="324" name="直線コネクタ 323"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="311" idx="2"/>
+          <a:endCxn id="323" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24322086" y="23412449"/>
+          <a:ext cx="19702" cy="1152529"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>176863</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>177728</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>98280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="330" name="直線コネクタ 329"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="361" idx="2"/>
+          <a:endCxn id="338" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24346551" y="28155900"/>
+          <a:ext cx="865" cy="1946130"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>87026</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>98280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="フローチャート: 判断 337"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22185026" y="30102030"/>
+          <a:ext cx="4323049" cy="2121045"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>傘を手に入れている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>176863</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>181625</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>128590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="344" name="直線コネクタ 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="348" idx="0"/>
+          <a:endCxn id="338" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24346551" y="32223075"/>
+          <a:ext cx="4762" cy="409578"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="00B050"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>431656</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>128590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>622157</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="フローチャート: 定義済み処理 347"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21691456" y="37276090"/>
+          <a:ext cx="4991101" cy="1833560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>傘を広げて崖を降りる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>157159</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>95247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>204786</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="フローチャート: 処理 357"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22945722" y="35099622"/>
+          <a:ext cx="2809877" cy="1366839"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>大きな木があり、巣の穴ある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>355456</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="フローチャート: 定義済み処理 360"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21762894" y="26717627"/>
+          <a:ext cx="5169044" cy="1438273"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>崖があり、下から風が吹く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>172100</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>177728</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="367" name="直線コネクタ 366"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="323" idx="2"/>
+          <a:endCxn id="361" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24341788" y="26160413"/>
+          <a:ext cx="5628" cy="557214"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>146771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="376" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="338" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26508075" y="28646438"/>
+          <a:ext cx="2876550" cy="2504208"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="380" name="直線矢印コネクタ 379"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24388762" y="32770762"/>
+          <a:ext cx="4776788" cy="28576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>181625</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>95247</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="420" name="直線コネクタ 419"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="348" idx="2"/>
+          <a:endCxn id="358" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24350661" y="34228088"/>
+          <a:ext cx="652" cy="871534"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>617392</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="423" name="フローチャート: 定義済み処理 422"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21334267" y="37490402"/>
+          <a:ext cx="6002482" cy="1595435"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>小動物が巣穴の中にアイテムを持って入る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>165820</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="424" name="直線コネクタ 423"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="358" idx="2"/>
+          <a:endCxn id="423" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24335508" y="36466461"/>
+          <a:ext cx="15153" cy="1023941"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>53690</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="428" name="フローチャート: 判断 427"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22151690" y="40079468"/>
+          <a:ext cx="4323049" cy="2121045"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>木の実を持っている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>143527</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>176863</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>79231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="429" name="直線コネクタ 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="447" idx="0"/>
+          <a:endCxn id="428" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24146527" y="48225075"/>
+          <a:ext cx="33336" cy="1955656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="00B050"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>146772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="430" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="428" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26293764" y="27503437"/>
+          <a:ext cx="5681660" cy="19506335"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>143527</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>165820</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="431" name="直線コネクタ 430"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="423" idx="2"/>
+          <a:endCxn id="428" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24313215" y="39085837"/>
+          <a:ext cx="22293" cy="993631"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="445" name="直線矢印コネクタ 444"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24712614" y="23998238"/>
+          <a:ext cx="7481886" cy="52387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>353726</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>79231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="447" name="フローチャート: 判断 446"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22299326" y="50180731"/>
+          <a:ext cx="3761074" cy="1482870"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>視点 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>= 3D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>58666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="455" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="447" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26060400" y="48653700"/>
+          <a:ext cx="952500" cy="2268466"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="463" name="直線矢印コネクタ 462"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24350662" y="48577500"/>
+          <a:ext cx="2700338" cy="52388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>176863</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="471" name="直線コネクタ 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="477" idx="0"/>
+          <a:endCxn id="447" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24179863" y="51663601"/>
+          <a:ext cx="8873" cy="809622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="00B050"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161922</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="477" name="フローチャート: 処理 476"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22793322" y="52473223"/>
+          <a:ext cx="2790827" cy="1209678"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>小動物がアイテムを落とす</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21315,8 +19434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AR34" sqref="AR34"/>
+    <sheetView tabSelected="1" topLeftCell="R67" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BH255" sqref="BH255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
